--- a/basic_statistics.xlsx
+++ b/basic_statistics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaskuttyreji/Documents/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaskuttyreji/Documents/GitHub/Notes-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C249F4-6B8B-244E-86D4-C924188DADBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27108B7-60B6-894F-B095-1E922967B8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BC02D250-1E1D-6E4C-8DEA-F692A9069C64}"/>
   </bookViews>
@@ -295,10 +295,56 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -307,7 +353,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -322,52 +368,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,7 +706,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,403 +716,403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="11" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="1" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="14"/>
     </row>
     <row r="7" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="21"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
     </row>
     <row r="8" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="24"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="17"/>
     </row>
     <row r="9" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="1" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="19"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="14"/>
     </row>
     <row r="11" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="24"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R27" s="25"/>
+      <c r="R27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
